--- a/teams.xlsx
+++ b/teams.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t>Team #</t>
   </si>
@@ -58,150 +58,213 @@
     <t>Bellarmine College Prep</t>
   </si>
   <si>
+    <t>Bellarmine Bay Area VEX Robotics Tournament</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>42.28</t>
+  </si>
+  <si>
+    <t>254B</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>29.53</t>
+  </si>
+  <si>
+    <t>254C</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30.46</t>
+  </si>
+  <si>
+    <t>254D</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25.68</t>
+  </si>
+  <si>
+    <t>254E</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>12.46</t>
+  </si>
+  <si>
+    <t>254H</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>315A</t>
+  </si>
+  <si>
+    <t>Paradigm</t>
+  </si>
+  <si>
+    <t>1st Annual Armijo High Robotics Tournament Presented by idesign Solution</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>62.87</t>
+  </si>
+  <si>
+    <t>315G</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>57.83</t>
+  </si>
+  <si>
+    <t>315X</t>
+  </si>
+  <si>
+    <t>75.33</t>
+  </si>
+  <si>
+    <t>315Y</t>
+  </si>
+  <si>
+    <t>Google Annual VEX Robotics Tournament #1</t>
+  </si>
+  <si>
+    <t>49.78</t>
+  </si>
+  <si>
+    <t>315Z</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>23.61</t>
+  </si>
+  <si>
+    <t>811Z</t>
+  </si>
+  <si>
+    <t>HAKBOTS</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>34.97</t>
+  </si>
+  <si>
+    <t>1000A</t>
+  </si>
+  <si>
+    <t>Foothill Falcons</t>
+  </si>
+  <si>
+    <t>Foothill High School</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>14.91</t>
+  </si>
+  <si>
+    <t>1000B</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>11.46</t>
+  </si>
+  <si>
+    <t>1868A</t>
+  </si>
+  <si>
+    <t>Space Cookies VEX Team</t>
+  </si>
+  <si>
+    <t>Space Cookies VEX Robotics Team</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>15.66</t>
+  </si>
+  <si>
+    <t>1868K</t>
+  </si>
+  <si>
+    <t>4th Annual Sacred Heart Middle School VRC Tournament</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21.49</t>
+  </si>
+  <si>
+    <t>1868X</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>9.62</t>
+  </si>
+  <si>
+    <t>1868Z</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>16.06</t>
+  </si>
+  <si>
+    <t>2077A</t>
+  </si>
+  <si>
+    <t>Team Terminators (T2)</t>
+  </si>
+  <si>
+    <t>Girl Scouts of Northern CA</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>19.29</t>
+  </si>
+  <si>
+    <t>2077B</t>
+  </si>
+  <si>
+    <t>SMARTS!</t>
+  </si>
+  <si>
     <t>New Team</t>
   </si>
   <si>
-    <t>254B</t>
-  </si>
-  <si>
-    <t>254C</t>
-  </si>
-  <si>
-    <t>254D</t>
-  </si>
-  <si>
-    <t>254E</t>
-  </si>
-  <si>
-    <t>315A</t>
-  </si>
-  <si>
-    <t>Paradigm</t>
-  </si>
-  <si>
-    <t>315G</t>
-  </si>
-  <si>
-    <t>315J</t>
-  </si>
-  <si>
-    <t>315X</t>
-  </si>
-  <si>
-    <t>315Y</t>
-  </si>
-  <si>
-    <t>315Z</t>
-  </si>
-  <si>
-    <t>811Z</t>
-  </si>
-  <si>
-    <t>HAKBOTS</t>
-  </si>
-  <si>
-    <t>920A</t>
-  </si>
-  <si>
-    <t>SLO - Botics</t>
-  </si>
-  <si>
-    <t>San Luis Obispo High School</t>
-  </si>
-  <si>
-    <t>920B</t>
-  </si>
-  <si>
-    <t>SLO-Botics</t>
-  </si>
-  <si>
-    <t>920C</t>
-  </si>
-  <si>
-    <t>1000A</t>
-  </si>
-  <si>
-    <t>Foothill Falcons</t>
-  </si>
-  <si>
-    <t>Foothill High School</t>
-  </si>
-  <si>
-    <t>1000B</t>
-  </si>
-  <si>
-    <t>1666R</t>
-  </si>
-  <si>
-    <t>Renegade Robotics</t>
-  </si>
-  <si>
-    <t>1868A</t>
-  </si>
-  <si>
-    <t>Space Cookies VEX Team</t>
-  </si>
-  <si>
-    <t>Space Cookies VEX Robotics Team</t>
-  </si>
-  <si>
-    <t>1868K</t>
-  </si>
-  <si>
-    <t>1868X</t>
-  </si>
-  <si>
-    <t>1868Z</t>
-  </si>
-  <si>
-    <t>2059A</t>
-  </si>
-  <si>
-    <t>Matadors</t>
-  </si>
-  <si>
-    <t>Mira Loma High School</t>
-  </si>
-  <si>
-    <t>4008A</t>
-  </si>
-  <si>
-    <t>Paly Robotics</t>
-  </si>
-  <si>
-    <t>4804A</t>
-  </si>
-  <si>
-    <t>Blackbeard</t>
-  </si>
-  <si>
-    <t>Pittsburg High School</t>
-  </si>
-  <si>
-    <t>4804B</t>
-  </si>
-  <si>
-    <t>Matey</t>
-  </si>
-  <si>
-    <t>4804C</t>
-  </si>
-  <si>
-    <t>Revenge</t>
-  </si>
-  <si>
-    <t>4804D</t>
-  </si>
-  <si>
-    <t>Dutchman</t>
-  </si>
-  <si>
-    <t>4804F</t>
-  </si>
-  <si>
-    <t>Swashbots</t>
-  </si>
-  <si>
     <t>5327A</t>
   </si>
   <si>
@@ -211,30 +274,57 @@
     <t>Dublin High School</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>40.35</t>
+  </si>
+  <si>
     <t>5327B</t>
   </si>
   <si>
     <t>Gael Force B</t>
   </si>
   <si>
+    <t>Vista's VEX Robotics Challenge</t>
+  </si>
+  <si>
+    <t>47.05</t>
+  </si>
+  <si>
     <t>5327C</t>
   </si>
   <si>
     <t>Gael Force C</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
     <t>5327D</t>
   </si>
   <si>
     <t>Gael Force D</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>21.7</t>
+  </si>
+  <si>
     <t>5327X</t>
   </si>
   <si>
     <t>Gael Force X</t>
   </si>
   <si>
+    <t>45.06</t>
+  </si>
+  <si>
     <t>5776A</t>
   </si>
   <si>
@@ -244,21 +334,57 @@
     <t>Dougherty Valley High School</t>
   </si>
   <si>
+    <t>Vanden Robotics In The Zone HS Tournament</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>43.83</t>
+  </si>
+  <si>
     <t>5776C</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>37.78</t>
+  </si>
+  <si>
     <t>5776E</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>51.52</t>
+  </si>
+  <si>
     <t>5776T</t>
   </si>
   <si>
+    <t>29.81</t>
+  </si>
+  <si>
     <t>5776X</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>11.54</t>
+  </si>
+  <si>
     <t>5776Z</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>22.68</t>
+  </si>
+  <si>
     <t>5958A</t>
   </si>
   <si>
@@ -268,37 +394,181 @@
     <t>Granada High School</t>
   </si>
   <si>
-    <t>8000A</t>
-  </si>
-  <si>
-    <t>HRS Robohawks</t>
-  </si>
-  <si>
-    <t>Head-Royce School</t>
-  </si>
-  <si>
-    <t>8000B</t>
-  </si>
-  <si>
-    <t>8000C</t>
-  </si>
-  <si>
-    <t>8000D</t>
-  </si>
-  <si>
-    <t>10182A</t>
-  </si>
-  <si>
-    <t>Robonitas</t>
-  </si>
-  <si>
-    <t>Sandpiper Robotics Club</t>
-  </si>
-  <si>
-    <t>12017T</t>
-  </si>
-  <si>
-    <t>Holy Spirit School</t>
+    <t>Dougherty Valley High School VEX Robotics Tournament</t>
+  </si>
+  <si>
+    <t>-2.23</t>
+  </si>
+  <si>
+    <t>6374A</t>
+  </si>
+  <si>
+    <t>Bionic Bruins</t>
+  </si>
+  <si>
+    <t>Branham High School</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>24.65</t>
+  </si>
+  <si>
+    <t>6374B</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>16.38</t>
+  </si>
+  <si>
+    <t>6374G</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-1.01</t>
+  </si>
+  <si>
+    <t>6374X</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>11.42</t>
+  </si>
+  <si>
+    <t>7114X</t>
+  </si>
+  <si>
+    <t>Legal_Eagles</t>
+  </si>
+  <si>
+    <t>Los Altos High School</t>
+  </si>
+  <si>
+    <t>7114Z</t>
+  </si>
+  <si>
+    <t>Regal Eagles</t>
+  </si>
+  <si>
+    <t>7579E</t>
+  </si>
+  <si>
+    <t>DYNObytes E</t>
+  </si>
+  <si>
+    <t>Next Generation Science and Technology Group</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>8583A</t>
+  </si>
+  <si>
+    <t>Folsom Techno Squad</t>
+  </si>
+  <si>
+    <t>FTS</t>
+  </si>
+  <si>
+    <t>San Joaquin Delta VEX League</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>8583B</t>
+  </si>
+  <si>
+    <t>9378A</t>
+  </si>
+  <si>
+    <t>Wolfpack Robotics</t>
+  </si>
+  <si>
+    <t>Merrill F West High School</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>9378E</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9378K</t>
+  </si>
+  <si>
+    <t>9378M</t>
+  </si>
+  <si>
+    <t>9378S</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>9378W</t>
+  </si>
+  <si>
+    <t>11.29</t>
+  </si>
+  <si>
+    <t>11101A</t>
+  </si>
+  <si>
+    <t>Speed Demons</t>
+  </si>
+  <si>
+    <t>Barcbots</t>
+  </si>
+  <si>
+    <t>59.33</t>
+  </si>
+  <si>
+    <t>11551A</t>
+  </si>
+  <si>
+    <t>VRC-ROBOCATS</t>
+  </si>
+  <si>
+    <t>Basis Independent Silicon Valley School</t>
+  </si>
+  <si>
+    <t>18.59</t>
+  </si>
+  <si>
+    <t>11551B</t>
+  </si>
+  <si>
+    <t>VRC-SPACECATS</t>
+  </si>
+  <si>
+    <t>18881A</t>
+  </si>
+  <si>
+    <t>Illumi-Not-We</t>
+  </si>
+  <si>
+    <t>WRMS Students</t>
+  </si>
+  <si>
+    <t>9.49</t>
   </si>
   <si>
     <t>21246B</t>
@@ -310,28 +580,58 @@
     <t>Dublin Robotics Club</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
     <t>21246C</t>
   </si>
   <si>
     <t>Dublin Robotics -Crafters</t>
   </si>
   <si>
+    <t>7th Annual VEX Robotics Tournament (In the Zone)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>29.32</t>
+  </si>
+  <si>
+    <t>21246J</t>
+  </si>
+  <si>
+    <t>Dublin Robotics - Rover</t>
+  </si>
+  <si>
+    <t>62.67</t>
+  </si>
+  <si>
     <t>21246T</t>
   </si>
   <si>
     <t>Dublin Robotics - T Team</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
     <t>21246U</t>
   </si>
   <si>
     <t>Dublin Robotics - U Team</t>
   </si>
   <si>
-    <t>21246X</t>
-  </si>
-  <si>
-    <t>Dublin Robotics -Chargers</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31.95</t>
   </si>
   <si>
     <t>21246Z</t>
@@ -340,31 +640,160 @@
     <t>Dublin Robotics - Z team</t>
   </si>
   <si>
-    <t>55115P</t>
-  </si>
-  <si>
-    <t>RoboPanthers</t>
-  </si>
-  <si>
-    <t>Corte Madera School</t>
-  </si>
-  <si>
-    <t>86868R</t>
-  </si>
-  <si>
-    <t>THE RESISTANCE</t>
-  </si>
-  <si>
-    <t>Nibot Robotics</t>
-  </si>
-  <si>
-    <t>94065J</t>
-  </si>
-  <si>
-    <t>Black Jaguar</t>
-  </si>
-  <si>
-    <t>Redwood Shores Robotics</t>
+    <t>34.26</t>
+  </si>
+  <si>
+    <t>25088A</t>
+  </si>
+  <si>
+    <t>The Claim Jumpers</t>
+  </si>
+  <si>
+    <t>San Francisco Christian School</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6.92</t>
+  </si>
+  <si>
+    <t>29760A</t>
+  </si>
+  <si>
+    <t>Shasta Charter Academy A</t>
+  </si>
+  <si>
+    <t>Shasta Charter Academy</t>
+  </si>
+  <si>
+    <t>Battle of the North II</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>29760B</t>
+  </si>
+  <si>
+    <t>Shasta Charter Academy B</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>9.79</t>
+  </si>
+  <si>
+    <t>37880G</t>
+  </si>
+  <si>
+    <t>The RoboTurkeys</t>
+  </si>
+  <si>
+    <t>Bair View Academy</t>
+  </si>
+  <si>
+    <t>42627G</t>
+  </si>
+  <si>
+    <t>Digital Minds</t>
+  </si>
+  <si>
+    <t>Neighborhood</t>
+  </si>
+  <si>
+    <t>36.67</t>
+  </si>
+  <si>
+    <t>42960A</t>
+  </si>
+  <si>
+    <t>Lions</t>
+  </si>
+  <si>
+    <t>Pacific Point Christian Schools</t>
+  </si>
+  <si>
+    <t>Florin Robotics Starstruck Tournament sponsored by iDESIGN Solutions</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>44730A</t>
+  </si>
+  <si>
+    <t>Bluescreens-A</t>
+  </si>
+  <si>
+    <t>Irvington High School</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>44730B</t>
+  </si>
+  <si>
+    <t>Bluescreens-B</t>
+  </si>
+  <si>
+    <t>10.01</t>
+  </si>
+  <si>
+    <t>44730C</t>
+  </si>
+  <si>
+    <t>Bluescreens-C</t>
+  </si>
+  <si>
+    <t>44730D</t>
+  </si>
+  <si>
+    <t>Bluescreens-D</t>
+  </si>
+  <si>
+    <t>88909B</t>
+  </si>
+  <si>
+    <t>The wrench not fit</t>
+  </si>
+  <si>
+    <t>InoBotics</t>
+  </si>
+  <si>
+    <t>Centennial roBOOtics SPOOKtacular 2017</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>9.12</t>
+  </si>
+  <si>
+    <t>94580Z</t>
+  </si>
+  <si>
+    <t>GS Haram Bots</t>
+  </si>
+  <si>
+    <t>Girls Scouts Troop 31630</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>95133A</t>
+  </si>
+  <si>
+    <t>Hashslinging Slashers</t>
+  </si>
+  <si>
+    <t>Downtown College Prep Alum Rock High School</t>
   </si>
 </sst>
 </file>
@@ -678,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -746,15 +1175,15 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -766,15 +1195,15 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -786,15 +1215,15 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -806,15 +1235,15 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -826,1030 +1255,1310 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>223</v>
+      </c>
+      <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" t="s">
+        <v>250</v>
+      </c>
+      <c r="F69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
